--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin1\Documents\Drone_project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23445" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Part Description</t>
   </si>
@@ -111,25 +106,26 @@
   </si>
   <si>
     <t>Components owned</t>
+  </si>
+  <si>
+    <t>MPU9250 9DOF IMU</t>
+  </si>
+  <si>
+    <t>http://www.ebay.co.uk/itm/9D0F-MPU-9250-SPI-IIC-9-Axis-Attitude-Gyro-Accelerator-Magnetometer- Module-/253026311230?epid=18002490478&amp;hash=item3ae98b1c3e:g:y40AAOSwhQhY7g3v</t>
+  </si>
+  <si>
+    <t>Content Inventory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -144,6 +140,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -153,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -161,25 +173,184 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -487,7 +658,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -495,21 +666,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -521,229 +703,292 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="9">
         <v>7.83</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="10">
         <f>D3*C3</f>
         <v>39.15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="9">
         <v>6.67</v>
       </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E12" si="0">D4*C4</f>
+      <c r="E4" s="10">
+        <f t="shared" ref="E4:E13" si="0">D4*C4</f>
         <v>33.35</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="9">
         <v>9.7100000000000009</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
         <v>9.7100000000000009</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="9">
         <v>4.03</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>4.03</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>6</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="9">
         <v>0.24</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>1.44</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="9">
         <v>18.489999999999998</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
         <v>18.489999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <v>3.61</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>3.61</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="9">
         <v>1.57</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>1.57</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="8">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="9">
         <v>3.08</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>3.08</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="8">
         <v>2</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="9">
         <v>1.44</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>2.88</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>4.99</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="0"/>
+        <v>4.99</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="1">
-        <f>SUM(E3:E12)</f>
-        <v>117.30999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="E14" s="16">
+        <f>SUM(E3:E13)</f>
+        <v>122.29999999999998</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="23">
         <v>1</v>
       </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
@@ -755,8 +1000,9 @@
     <hyperlink ref="B10" r:id="rId8"/>
     <hyperlink ref="B11" r:id="rId9"/>
     <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId12"/>
 </worksheet>
 </file>